--- a/biology/Médecine/Céphalométrie/Céphalométrie.xlsx
+++ b/biology/Médecine/Céphalométrie/Céphalométrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9phalom%C3%A9trie</t>
+          <t>Céphalométrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La céphalométrie est un processus d'analyse crânienne. Grâce à elle, il est possible de calculer les différentes distances entre chaque partie du crâne. Son but est de détecter tout problème invisible sur le patient. La céphalométrie est un procédé de radiologie généralement tri-dimensionnelle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9phalom%C3%A9trie</t>
+          <t>Céphalométrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Spécialité du monde orthodontique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La céphalométrie est très utilisée par les orthodontistes pour analyser chaque patient. Des tracés sont paramétrés sur les radios pour prévoir le traitement directement sur la forme de visage du patient. 
 </t>
